--- a/Vimdesktop_BoBO版本热键说明.xlsx
+++ b/Vimdesktop_BoBO版本热键说明.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="10440" activeTab="1"/>
+    <workbookView windowWidth="24000" windowHeight="10440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Custom" sheetId="10" r:id="rId1"/>
     <sheet name="AE" sheetId="11" r:id="rId2"/>
+    <sheet name="Photoshop" sheetId="12" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_111111111111111" localSheetId="0">Custom!#REF!</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="218">
   <si>
     <t>QZ_Custom内 VIMD模式及热键说明</t>
   </si>
@@ -162,37 +163,40 @@
     <t>返回上级目录</t>
   </si>
   <si>
-    <t>Adobe AfterEffect VIMD模式及热键说明 20190828 版本2.0</t>
+    <t>Adobe AfterEffect VIMD模式及热键说明 20190902 版本2.1</t>
   </si>
   <si>
     <t>模式</t>
   </si>
   <si>
+    <t>注意事项</t>
+  </si>
+  <si>
+    <t>开启</t>
+  </si>
+  <si>
+    <t>勾选菜单Edit-Preferences 【Allow Script to Write Files and Access Netork】中文版允许脚本写入文件和访问网络</t>
+  </si>
+  <si>
+    <t>AE单窗口运行，多窗口运行会有一些奇葩问题！</t>
+  </si>
+  <si>
     <t>【普通模式】</t>
   </si>
   <si>
     <t>模式切换</t>
   </si>
   <si>
-    <t>insert</t>
+    <t>Insert</t>
   </si>
   <si>
     <t>启用</t>
   </si>
   <si>
-    <t>AfterEffect_切换到【VIM模式】</t>
-  </si>
-  <si>
-    <t>全局运行Ae，最好只使用单模式窗口AE,工作时请窗口最大化(请双击zz)</t>
-  </si>
-  <si>
-    <t>【VIM模式】</t>
-  </si>
-  <si>
-    <t>esc</t>
-  </si>
-  <si>
-    <t>AfterEffect_切换到【普通模式】</t>
+    <t>单键切换模式</t>
+  </si>
+  <si>
+    <t>全局运行Ae，最好只使用单模式窗口AE,并且窗口最大化(请双击zz)</t>
   </si>
   <si>
     <t>特殊</t>
@@ -204,15 +208,6 @@
     <t>通用_显示VIMD热键帮助</t>
   </si>
   <si>
-    <t>空格</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>捐赠版激活_辅助工具，捐赠版以脚本为主</t>
-  </si>
-  <si>
     <t>项目</t>
   </si>
   <si>
@@ -261,22 +256,61 @@
     <t xml:space="preserve">1.默认 2.双击添加到渲染 </t>
   </si>
   <si>
-    <t>数字1</t>
-  </si>
-  <si>
-    <t>1.上一帧 2.双按第一帧 3.长按 执行清理内存和整理素材</t>
-  </si>
-  <si>
-    <t>数字2</t>
+    <t>F1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.35"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.捐赠版激活_辅助工具，捐赠版以脚本为主</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2.双按项目整理和清理内存</t>
+    </r>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.上一帧 2.双按第一帧 </t>
+  </si>
+  <si>
+    <t>F3</t>
   </si>
   <si>
     <t>1.下一帧 2.双按最后一帧</t>
   </si>
   <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>2.双按关闭3.长按关闭所有合成组</t>
+  </si>
+  <si>
+    <t>1.播放</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>1.修剪合成时间</t>
+  </si>
+  <si>
     <t>数字8</t>
   </si>
   <si>
-    <t>1.默认 2.双按 循环工具</t>
+    <t>2.双按 循环工具</t>
   </si>
   <si>
     <t>-</t>
@@ -285,7 +319,7 @@
     <t>(-)位置</t>
   </si>
   <si>
-    <t>画布变小</t>
+    <t>1.画布变小</t>
   </si>
   <si>
     <t>=</t>
@@ -294,13 +328,7 @@
     <t>(+)位置</t>
   </si>
   <si>
-    <t>画布变大</t>
-  </si>
-  <si>
-    <t>、、</t>
-  </si>
-  <si>
-    <t>画布100%显示</t>
+    <t>1.画布变大 2.双按 画布100%显示</t>
   </si>
   <si>
     <t>发生空格命令</t>
@@ -459,7 +487,7 @@
     <t>0=x(0)y(0) 重置属性</t>
   </si>
   <si>
-    <t>双按图层回到中心点</t>
+    <t>双按图层重置</t>
   </si>
   <si>
     <t>组合</t>
@@ -537,10 +565,166 @@
     <t>其它一些脚本工具</t>
   </si>
   <si>
-    <t>F6</t>
-  </si>
-  <si>
     <t>优化合成时间，以时间线工作滑块为合成时间</t>
+  </si>
+  <si>
+    <t>Adobe Photoshop VIMD模式及热键说明 20190902 版本1.0</t>
+  </si>
+  <si>
+    <t>带 ** 表示目前状态今后可能会更改</t>
+  </si>
+  <si>
+    <t>已知Bug未解决:某些脚本未加判断导致Bug，将在下个版本逐一解决！</t>
+  </si>
+  <si>
+    <t>Win+p</t>
+  </si>
+  <si>
+    <t>全局开启Photoshop</t>
+  </si>
+  <si>
+    <t>基本</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">** </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>切换 [画笔|橡皮擦] 双按涂抹</t>
+    </r>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">** </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>切换 [移动|框选|多边形|魔术棒]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 切换 [涂抹|加暗&amp;加亮|路径]</t>
+    </r>
+  </si>
+  <si>
+    <t>n=New(新)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.新建图层 2.双按 新建文件 </t>
+  </si>
+  <si>
+    <t>d=Duplicate(重复)</t>
+  </si>
+  <si>
+    <t>1.复制图层 2.双按 删除3.鼠标长按+d向下合并</t>
+  </si>
+  <si>
+    <t>F2/F3</t>
+  </si>
+  <si>
+    <t>切换文件</t>
+  </si>
+  <si>
+    <t>画笔|颜色</t>
+  </si>
+  <si>
+    <t>数字1/2</t>
+  </si>
+  <si>
+    <t>画笔大/小</t>
+  </si>
+  <si>
+    <t>数字3/4</t>
+  </si>
+  <si>
+    <t>颜色变亮/变暗</t>
+  </si>
+  <si>
+    <t>数字5</t>
+  </si>
+  <si>
+    <t>加暗/加亮</t>
+  </si>
+  <si>
+    <t>c=color(颜色)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.颜色面板 2.双击填充 </t>
+  </si>
+  <si>
+    <t>1.切换颜色 2.双击关闭</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>b=brush(笔刷)</t>
+  </si>
+  <si>
+    <t>1.单按笔刷/涂抹切换 2双按橡皮檫</t>
+  </si>
+  <si>
+    <t>画布|图层</t>
+  </si>
+  <si>
+    <t>图层居中</t>
+  </si>
+  <si>
+    <t>1.单按缩小 双按缩小到屏幕</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>2.单按放大 双按100%显示</t>
+  </si>
+  <si>
+    <t>空格+w</t>
+  </si>
+  <si>
+    <t>向上移</t>
+  </si>
+  <si>
+    <t>向下移</t>
+  </si>
+  <si>
+    <t>图层透明度 减</t>
+  </si>
+  <si>
+    <t>空格+e</t>
+  </si>
+  <si>
+    <t>图层透明度 加</t>
+  </si>
+  <si>
+    <t>双按独立显示图层</t>
+  </si>
+  <si>
+    <t>2.双水平翻转3.长按当前图层水平翻转</t>
   </si>
 </sst>
 </file>
@@ -553,22 +737,10 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -592,7 +764,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -603,28 +799,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0" tint="-0.25"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.25"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color theme="0" tint="-0.35"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -633,12 +821,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -667,7 +849,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,7 +885,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,74 +907,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,18 +936,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -816,13 +974,49 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -832,7 +1026,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,7 +1038,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,37 +1092,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,55 +1122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,13 +1134,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,19 +1152,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,18 +1176,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -1065,7 +1259,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -1074,6 +1268,21 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
@@ -1212,6 +1421,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="hair">
         <color auto="1"/>
@@ -1228,7 +1465,7 @@
       <left style="hair">
         <color auto="1"/>
       </left>
-      <right style="hair">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -1240,13 +1477,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="hair">
         <color auto="1"/>
       </left>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="hair">
         <color auto="1"/>
       </top>
       <bottom style="hair">
@@ -1255,10 +1520,82 @@
       <diagonal/>
     </border>
     <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="hair">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="hair">
         <color auto="1"/>
       </top>
@@ -1268,6 +1605,96 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="hair">
         <color auto="1"/>
       </left>
@@ -1277,7 +1704,7 @@
       <top style="hair">
         <color auto="1"/>
       </top>
-      <bottom style="hair">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1292,72 +1719,13 @@
       <top style="hair">
         <color auto="1"/>
       </top>
-      <bottom style="hair">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
@@ -1366,7 +1734,42 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
@@ -1375,15 +1778,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1395,17 +1789,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1452,29 +1835,20 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color auto="1"/>
       </left>
       <right/>
@@ -1487,64 +1861,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1559,43 +1883,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1607,13 +1894,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="hair">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -1625,10 +1912,10 @@
       <left style="hair">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -1637,6 +1924,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1646,9 +1948,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1661,22 +1961,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="hair">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1688,48 +1973,83 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1753,52 +2073,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1813,189 +2088,384 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="61" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="59" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="62" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="65" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="61" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="63" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="67" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="62" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="63" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2003,376 +2473,169 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2699,427 +2962,427 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="40.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="3"/>
-    <col min="8" max="9" width="31.5" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="3"/>
+    <col min="1" max="1" width="15.125" style="65" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="76" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="76" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="77" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="76" customWidth="1"/>
+    <col min="6" max="6" width="40.25" style="65" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="65"/>
+    <col min="8" max="9" width="31.5" style="65" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="23.25" spans="1:6">
-      <c r="A1" s="116" t="s">
+    <row r="1" s="74" customFormat="1" ht="23.25" spans="1:6">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="15" spans="1:6">
-      <c r="A2" s="118" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+    </row>
+    <row r="2" s="117" customFormat="1" ht="15" spans="1:6">
+      <c r="A2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="119" t="s">
+      <c r="C2" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="119" t="s">
+      <c r="E2" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="120" t="s">
+      <c r="F2" s="122" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="124"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="125" t="s">
+      <c r="D3" s="126"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="127" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="126"/>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123" t="s">
+      <c r="A4" s="128"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="125" t="s">
+      <c r="D4" s="126"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="127" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="126"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123" t="s">
+      <c r="A5" s="128"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="124"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="125" t="s">
+      <c r="D5" s="126"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="127" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="126"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="125"/>
+      <c r="A6" s="128"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="127"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="126"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="125"/>
+      <c r="A7" s="128"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="127"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="126"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123" t="s">
+      <c r="A8" s="128"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="125" t="s">
+      <c r="D8" s="126"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="127" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="126"/>
-      <c r="B9" s="123"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="125"/>
+      <c r="A9" s="128"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="127"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="126"/>
-      <c r="B10" s="123" t="s">
+      <c r="A10" s="128"/>
+      <c r="B10" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="125" t="s">
+      <c r="D10" s="126"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="127" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="126"/>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123" t="s">
+      <c r="A11" s="128"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="125" t="s">
+      <c r="D11" s="126"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="127" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="126"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123" t="s">
+      <c r="A12" s="128"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="125" t="s">
+      <c r="D12" s="126"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="127" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="126"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123" t="s">
+      <c r="A13" s="128"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="124"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="125" t="s">
+      <c r="D13" s="126"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="127" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="126"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123" t="s">
+      <c r="A14" s="128"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="124"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="125" t="s">
+      <c r="D14" s="126"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="127" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="126"/>
-      <c r="B15" s="123"/>
-      <c r="C15" s="123" t="s">
+      <c r="A15" s="128"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="124"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="125" t="s">
+      <c r="D15" s="126"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="127" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="126"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="125"/>
+      <c r="A16" s="128"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="127"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="126"/>
-      <c r="B17" s="123"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="125"/>
+      <c r="A17" s="128"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="127"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="126"/>
-      <c r="B18" s="123" t="s">
+      <c r="A18" s="128"/>
+      <c r="B18" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="123" t="s">
+      <c r="C18" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="125" t="s">
+      <c r="D18" s="126"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="127" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="126"/>
-      <c r="B19" s="123"/>
-      <c r="C19" s="123" t="s">
+      <c r="A19" s="128"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="124"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="125" t="s">
+      <c r="D19" s="126"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="127" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="126"/>
-      <c r="B20" s="123"/>
-      <c r="C20" s="123" t="s">
+      <c r="A20" s="128"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="124"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="125" t="s">
+      <c r="D20" s="126"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="127" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="126"/>
-      <c r="B21" s="123"/>
-      <c r="C21" s="123" t="s">
+      <c r="A21" s="128"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="125" t="s">
+      <c r="D21" s="126"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="127" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="126"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="123" t="s">
+      <c r="A22" s="128"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="124"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="125" t="s">
+      <c r="D22" s="126"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="127" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="126"/>
-      <c r="B23" s="123"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="125"/>
+      <c r="A23" s="128"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="127"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="126"/>
-      <c r="B24" s="123" t="s">
+      <c r="A24" s="128"/>
+      <c r="B24" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="124"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="125" t="s">
+      <c r="D24" s="126"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="127" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="126"/>
-      <c r="B25" s="123"/>
-      <c r="C25" s="123" t="s">
+      <c r="A25" s="128"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="124"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="125" t="s">
+      <c r="D25" s="126"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="127" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="126"/>
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="125"/>
+      <c r="A26" s="128"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="127"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="126"/>
-      <c r="B27" s="123"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="125"/>
+      <c r="A27" s="128"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="127"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="126"/>
-      <c r="B28" s="123"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="125"/>
+      <c r="A28" s="128"/>
+      <c r="B28" s="125"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="127"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="126"/>
-      <c r="B29" s="123"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="125"/>
+      <c r="A29" s="128"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="127"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="126"/>
-      <c r="B30" s="123" t="s">
+      <c r="A30" s="128"/>
+      <c r="B30" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="123"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="127"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="126"/>
-      <c r="B31" s="123"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="125"/>
+      <c r="A31" s="128"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="127"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="126"/>
-      <c r="B32" s="123"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="124"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="125"/>
+      <c r="A32" s="128"/>
+      <c r="B32" s="125"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="127"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="126"/>
-      <c r="B33" s="123" t="s">
+      <c r="A33" s="128"/>
+      <c r="B33" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="123"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="125"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="127"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="126"/>
-      <c r="B34" s="123"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="124"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="125"/>
+      <c r="A34" s="128"/>
+      <c r="B34" s="125"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="127"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="126"/>
-      <c r="B35" s="123"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="125"/>
+      <c r="A35" s="128"/>
+      <c r="B35" s="125"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="127"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="126"/>
-      <c r="B36" s="123"/>
-      <c r="C36" s="123"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="125"/>
+      <c r="A36" s="128"/>
+      <c r="B36" s="125"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="127"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="126"/>
-      <c r="B37" s="123" t="s">
+      <c r="A37" s="128"/>
+      <c r="B37" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="123" t="s">
+      <c r="C37" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="124"/>
-      <c r="E37" s="123"/>
-      <c r="F37" s="125" t="s">
+      <c r="D37" s="126"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="127" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="127"/>
-      <c r="B38" s="128"/>
-      <c r="C38" s="128"/>
-      <c r="D38" s="129"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="130" t="s">
+      <c r="A38" s="129"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="132" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3144,894 +3407,1500 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6" style="5" customWidth="1"/>
-    <col min="6" max="6" width="109.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="3"/>
-    <col min="8" max="9" width="31.5" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="3"/>
+    <col min="1" max="1" width="12" style="65" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="76" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="76" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="77" customWidth="1"/>
+    <col min="5" max="5" width="6" style="76" customWidth="1"/>
+    <col min="6" max="6" width="109.25" style="65" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="65"/>
+    <col min="8" max="9" width="31.5" style="65" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="25.5" spans="1:6">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="74" customFormat="1" ht="25.5" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" s="75" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="75" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="F3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14" t="s">
+    </row>
+    <row r="4" s="75" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="16" t="s">
+    </row>
+    <row r="5" s="65" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19" t="s">
+      <c r="B5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+    </row>
+    <row r="6" s="65" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A5" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A6" s="22"/>
-      <c r="B6" s="24" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+    </row>
+    <row r="7" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="27" t="s">
+      <c r="C7" s="21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" s="4" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="30" t="s">
+    </row>
+    <row r="8" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A8" s="78"/>
+      <c r="B8" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="C8" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="36" t="s">
+    </row>
+    <row r="9" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A9" s="78"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="38" t="s">
+      <c r="D9" s="35"/>
+      <c r="E9" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="36" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A9" s="34"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40" t="s">
+    <row r="10" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A10" s="78"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="42" t="s">
+      <c r="D10" s="35" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A10" s="34"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="40" t="s">
+      <c r="E10" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="41" t="s">
+    </row>
+    <row r="11" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A11" s="78"/>
+      <c r="B11" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="42" t="s">
+      <c r="D11" s="85"/>
+      <c r="E11" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="86" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A11" s="34"/>
-      <c r="B11" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="45" t="s">
+    <row r="12" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A12" s="78"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="47" t="s">
+      <c r="D12" s="88"/>
+      <c r="E12" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="89" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A12" s="34"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49" t="s">
+    <row r="13" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A13" s="78"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="51" t="s">
+      <c r="D13" s="35"/>
+      <c r="E13" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="36" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A13" s="34"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="40" t="s">
+    <row r="14" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A14" s="78"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="42" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="57" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A14" s="34"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="40" t="s">
+    <row r="15" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A15" s="78"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="53" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="91" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A15" s="34"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="54" t="s">
+    <row r="16" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A16" s="78"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="57" t="s">
+      <c r="D16" s="37"/>
+      <c r="E16" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A16" s="34"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="54" t="s">
+    <row r="17" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A17" s="78"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="57" t="s">
+      <c r="D17" s="37"/>
+      <c r="E17" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A17" s="34"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="58" t="s">
+    <row r="18" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A18" s="78"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="60" t="s">
+      <c r="D18" s="37"/>
+      <c r="E18" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A18" s="34"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="58" t="s">
+    <row r="19" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A19" s="78"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="59" t="s">
+    </row>
+    <row r="20" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A20" s="78"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="60" t="s">
+      <c r="D20" s="37"/>
+      <c r="E20" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="29" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A19" s="34"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="58" t="s">
+    <row r="21" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A21" s="78"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D21" s="17"/>
+      <c r="E21" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="60" t="s">
+    </row>
+    <row r="22" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A22" s="78"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="16" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="20" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A20" s="34"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="58" t="s">
+      <c r="D22" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="60" t="s">
+      <c r="E22" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="56" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A21" s="34"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="61" t="s">
+    <row r="23" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A23" s="78"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="60" t="s">
+      <c r="D23" s="17" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A22" s="34"/>
-      <c r="B22" s="63" t="s">
+      <c r="E23" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="45" t="s">
+    </row>
+    <row r="24" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A24" s="78"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="56"/>
+    </row>
+    <row r="25" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A25" s="78"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="66" t="s">
+      <c r="E25" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="56" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A23" s="34"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="58" t="s">
+    <row r="26" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A26" s="78"/>
+      <c r="B26" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="70" t="s">
+      <c r="C26" s="28" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A24" s="34"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="71" t="s">
+      <c r="D26" s="93"/>
+      <c r="E26" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="73" t="s">
+    </row>
+    <row r="27" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A27" s="78"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="25" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A25" s="34"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="19" t="s">
+      <c r="D27" s="68"/>
+      <c r="E27" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="74" t="s">
+    </row>
+    <row r="28" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A28" s="78"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="16" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="26" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A26" s="34"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="58" t="s">
+      <c r="D28" s="17"/>
+      <c r="E28" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="20" t="s">
+    </row>
+    <row r="29" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A29" s="78"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E26" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="75" t="s">
+      <c r="D29" s="17"/>
+      <c r="E29" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="98" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A27" s="34"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="58" t="s">
+    <row r="30" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A30" s="78"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="75" t="s">
+      <c r="D30" s="17" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="28" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A28" s="34"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="58" t="s">
+      <c r="E30" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="75" t="s">
+    </row>
+    <row r="31" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A31" s="78"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="16" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="29" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A29" s="34"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="20" t="s">
+      <c r="D31" s="17"/>
+      <c r="E31" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="75" t="s">
+    </row>
+    <row r="32" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A32" s="78"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="16" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="30" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A30" s="34"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="71" t="s">
+      <c r="D32" s="17"/>
+      <c r="E32" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="72"/>
-      <c r="E30" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="77" t="s">
+    </row>
+    <row r="33" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A33" s="78"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="31" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A31" s="34"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="71" t="s">
+      <c r="E33" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="72" t="s">
+    </row>
+    <row r="34" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A34" s="78"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="75" t="s">
+      <c r="D34" s="17"/>
+      <c r="E34" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="100" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="32" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A32" s="34"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="71" t="s">
+    <row r="35" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A35" s="78"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="72" t="s">
+      <c r="D35" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="75" t="s">
+      <c r="E35" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="98" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="33" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A33" s="34"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="71" t="s">
+    <row r="36" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A36" s="78"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="78" t="s">
+      <c r="D36" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E33" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="75" t="s">
+      <c r="E36" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="98" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A34" s="34"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="71" t="s">
+    <row r="37" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A37" s="78"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D34" s="78" t="s">
+      <c r="D37" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="E34" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="75" t="s">
+      <c r="E37" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="98" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A35" s="34"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="71" t="s">
+    <row r="38" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A38" s="78"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D35" s="78" t="s">
+      <c r="D38" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="E35" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="75" t="s">
+      <c r="E38" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="98" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="36" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A36" s="34"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="71" t="s">
+    <row r="39" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A39" s="78"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="78" t="s">
+      <c r="D39" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="79" t="s">
+      <c r="E39" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="98" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="37" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A37" s="34"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="19" t="s">
+    <row r="40" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A40" s="78"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D40" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="E37" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="75" t="s">
+      <c r="E40" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="98" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="38" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A38" s="34"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="81" t="s">
+    <row r="41" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A41" s="78"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="82" t="s">
+      <c r="D41" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E38" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="84" t="s">
+      <c r="E41" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="98" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="39" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A39" s="34"/>
-      <c r="B39" s="85" t="s">
+    <row r="42" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A42" s="78"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="87" t="s">
+      <c r="D42" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="E39" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="88" t="s">
+      <c r="E42" s="105" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="106" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="40" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A40" s="34"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="D40" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="E40" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" s="89" t="s">
+    <row r="43" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A43" s="78"/>
+      <c r="B43" s="15" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="41" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A41" s="34"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="90" t="s">
+      <c r="C43" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="E43" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="E41" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" s="53" t="s">
+    </row>
+    <row r="44" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A44" s="78"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="107" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A42" s="34"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="53"/>
-    </row>
-    <row r="43" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A43" s="34"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="53"/>
-    </row>
-    <row r="44" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A44" s="34"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="60"/>
-    </row>
-    <row r="45" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A45" s="92"/>
-      <c r="B45" s="63" t="s">
+    <row r="45" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A45" s="78"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="C45" s="93" t="s">
+      <c r="D45" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D45" s="94"/>
-      <c r="E45" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="96" t="s">
+      <c r="E45" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="57" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="46" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A46" s="92"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="97" t="s">
+    <row r="46" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A46" s="78"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="57"/>
+    </row>
+    <row r="47" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A47" s="78"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="57"/>
+    </row>
+    <row r="48" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A48" s="78"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="56"/>
+    </row>
+    <row r="49" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A49" s="30"/>
+      <c r="B49" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="98" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="99" t="s">
+      <c r="C49" s="109" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="47" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A47" s="92"/>
-      <c r="B47" s="100"/>
-      <c r="C47" s="101" t="s">
+      <c r="D49" s="110"/>
+      <c r="E49" s="111" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="112" t="s">
         <v>152</v>
       </c>
-      <c r="D47" s="87"/>
-      <c r="E47" s="102" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="99" t="s">
+    </row>
+    <row r="50" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A50" s="30"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="113" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="48" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A48" s="92"/>
-      <c r="B48" s="67"/>
-      <c r="C48" s="103" t="s">
+      <c r="D50" s="35"/>
+      <c r="E50" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="98" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48" s="99" t="s">
+    </row>
+    <row r="51" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A51" s="30"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="58" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="49" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A49" s="92"/>
-      <c r="B49" s="67"/>
-      <c r="C49" s="69" t="s">
+      <c r="D51" s="52"/>
+      <c r="E51" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="102" t="s">
-        <v>52</v>
-      </c>
-      <c r="F49" s="104" t="s">
+    </row>
+    <row r="52" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A52" s="30"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="115" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="50" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A50" s="92"/>
-      <c r="B50" s="67"/>
-      <c r="C50" s="105" t="s">
+      <c r="D52" s="17"/>
+      <c r="E52" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="D50" s="87"/>
-      <c r="E50" s="101" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="106" t="s">
+    </row>
+    <row r="53" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A53" s="30"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="97" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="51" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A51" s="92"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="40" t="s">
+      <c r="D53" s="35"/>
+      <c r="E53" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D51" s="87"/>
-      <c r="E51" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="F51" s="42" t="s">
+    </row>
+    <row r="54" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A54" s="30"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="55" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="52" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A52" s="92"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="40" t="s">
+      <c r="D54" s="52"/>
+      <c r="E54" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F52" s="42" t="s">
+    </row>
+    <row r="55" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A55" s="30"/>
+      <c r="B55" s="96"/>
+      <c r="C55" s="55" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="53" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A53" s="92"/>
-      <c r="B53" s="100"/>
-      <c r="C53" s="98" t="s">
+      <c r="D55" s="52"/>
+      <c r="E55" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="D53" s="41"/>
-      <c r="E53" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F53" s="42" t="s">
+    </row>
+    <row r="56" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A56" s="30"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="55" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="54" s="3" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A54" s="107"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="40" t="s">
+      <c r="D56" s="35"/>
+      <c r="E56" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="E54" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="F54" s="106" t="s">
+    </row>
+    <row r="57" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A57" s="30"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="34" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="55" s="3" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A55" s="107"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="108" t="s">
+      <c r="D57" s="35"/>
+      <c r="E57" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="D55" s="109"/>
-      <c r="E55" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F55" s="110" t="s">
+    </row>
+    <row r="58" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A58" s="64"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="55" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="56" s="3" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A56" s="107"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="108" t="s">
+      <c r="E58" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" s="63" t="s">
         <v>170</v>
       </c>
-      <c r="D56" s="109"/>
-      <c r="E56" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="F56" s="110" t="s">
+    </row>
+    <row r="59" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A59" s="64"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="66" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="57" s="3" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A57" s="107"/>
-      <c r="B57" s="67"/>
-      <c r="C57" s="108" t="s">
+      <c r="D59" s="68"/>
+      <c r="E59" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="D57" s="109"/>
-      <c r="E57" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F57" s="110" t="s">
+    </row>
+    <row r="60" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A60" s="64"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="66" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="58" s="3" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A58" s="111"/>
-      <c r="B58" s="112"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="113"/>
-      <c r="F58" s="115"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60" s="63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" s="65" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A61" s="64"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="68"/>
+      <c r="E61" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" s="63" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" s="65" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A62" s="69"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A58"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A62"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B21"/>
-    <mergeCell ref="B22:B37"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="B45:B58"/>
+    <mergeCell ref="B11:B25"/>
+    <mergeCell ref="B26:B41"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="B49:B62"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="88.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.5" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:6">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:6">
+      <c r="A5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:6">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:6">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:6">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:6">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:6">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:6">
+      <c r="A11" s="30"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:6">
+      <c r="A12" s="30"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:6">
+      <c r="A13" s="30"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:6">
+      <c r="A14" s="30"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:6">
+      <c r="A15" s="30"/>
+      <c r="B15" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:6">
+      <c r="A16" s="30"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:6">
+      <c r="A17" s="30"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:6">
+      <c r="A18" s="30"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:6">
+      <c r="A19" s="30"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:6">
+      <c r="A20" s="30"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:6">
+      <c r="A21" s="30"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="46"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:6">
+      <c r="A22" s="30"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="46"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:6">
+      <c r="A23" s="30"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:6">
+      <c r="A24" s="30"/>
+      <c r="B24" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="54" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="1:6">
+      <c r="A25" s="30"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="1:6">
+      <c r="A26" s="30"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="56" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="1:6">
+      <c r="A27" s="30"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="1:6">
+      <c r="A28" s="30"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="57" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="1:6">
+      <c r="A29" s="30"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="1:6">
+      <c r="A30" s="30"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="56" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="1:6">
+      <c r="A31" s="30"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="35"/>
+      <c r="E31" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="59" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="1:6">
+      <c r="A32" s="30"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="52"/>
+      <c r="E32" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="59" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="1:6">
+      <c r="A33" s="30"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="59"/>
+    </row>
+    <row r="34" ht="16.5" spans="1:6">
+      <c r="A34" s="30"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="62"/>
+    </row>
+    <row r="35" ht="16.5" spans="1:6">
+      <c r="A35" s="30"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="63"/>
+    </row>
+    <row r="36" ht="16.5" spans="1:6">
+      <c r="A36" s="30"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="36"/>
+    </row>
+    <row r="37" ht="16.5" spans="1:6">
+      <c r="A37" s="30"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="36"/>
+    </row>
+    <row r="38" ht="16.5" spans="1:6">
+      <c r="A38" s="30"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="36"/>
+    </row>
+    <row r="39" ht="16.5" spans="1:6">
+      <c r="A39" s="64"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="63"/>
+    </row>
+    <row r="40" ht="16.5" spans="1:6">
+      <c r="A40" s="64"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="63"/>
+    </row>
+    <row r="41" ht="16.5" spans="1:6">
+      <c r="A41" s="64"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="63"/>
+    </row>
+    <row r="42" ht="16.5" spans="1:6">
+      <c r="A42" s="64"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="63"/>
+    </row>
+    <row r="43" ht="17.25" spans="1:6">
+      <c r="A43" s="69"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="73"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A43"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="B15:B23"/>
+    <mergeCell ref="B24:B43"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Vimdesktop_BoBO版本热键说明.xlsx
+++ b/Vimdesktop_BoBO版本热键说明.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BoBOAHK\Vimdesktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="10440" activeTab="2"/>
+    <workbookView xWindow="3870" yWindow="0" windowWidth="24240" windowHeight="9810" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Custom" sheetId="10" r:id="rId1"/>
     <sheet name="AE" sheetId="11" r:id="rId2"/>
     <sheet name="Photoshop" sheetId="12" r:id="rId3"/>
+    <sheet name="3DsMax" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_111111111111111" localSheetId="0">Custom!#REF!</definedName>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="251">
   <si>
     <t>QZ_Custom内 VIMD模式及热键说明</t>
   </si>
@@ -262,7 +268,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="0" tint="-0.35"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
@@ -587,6 +593,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">** </t>
     </r>
     <r>
@@ -604,6 +617,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">** </t>
     </r>
     <r>
@@ -618,6 +638,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>**</t>
     </r>
     <r>
@@ -726,18 +753,111 @@
   <si>
     <t>2.双水平翻转3.长按当前图层水平翻转</t>
   </si>
+  <si>
+    <t>3DsMax VIMD模式及热键说明 20190902 版本1.0</t>
+  </si>
+  <si>
+    <t>1.默认2.双击渲染</t>
+  </si>
+  <si>
+    <t>1.默认2.双击切换窗口</t>
+  </si>
+  <si>
+    <t>1.默认2.双击物体转转90</t>
+  </si>
+  <si>
+    <t>1.默认 2.双击打开3.长按保存</t>
+  </si>
+  <si>
+    <t>物体操作</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>1.默认 2.物体独立显示 3.无</t>
+  </si>
+  <si>
+    <t>1.隐藏所选物体 2.双击非选择物体 3.长按显示所有 4.长按鼠标左键+h Display Floater</t>
+  </si>
+  <si>
+    <t>1.默认搜索 2.双击ActiveType 3.长按删除</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>1.默认 2.双击塌陷物体 3.分离物体</t>
+  </si>
+  <si>
+    <t>1.默认 2.双击克隆 3.长按删除</t>
+  </si>
+  <si>
+    <t>2.双击 物体坐标归0  3.长按轴归0</t>
+  </si>
+  <si>
+    <t>数字1</t>
+  </si>
+  <si>
+    <t>切换 物体显示线 框</t>
+  </si>
+  <si>
+    <t>鼠标左键+v</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>1.默认 2.双击冻结 3.长按鼠标左键+f解冻所有</t>
+  </si>
+  <si>
+    <t>1.默认 2.双击所有窗口最大化</t>
+  </si>
+  <si>
+    <t>动画</t>
+  </si>
+  <si>
+    <t>上一帧</t>
+  </si>
+  <si>
+    <t>下一帧</t>
+  </si>
+  <si>
+    <t>K帧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">播放 </t>
+  </si>
+  <si>
+    <t>1.转换为Poly 2.转换为Mesh 3.Spline</t>
+  </si>
+  <si>
+    <t>鼠标左键+l</t>
+  </si>
+  <si>
+    <t>1.链接2.断开链接</t>
+  </si>
+  <si>
+    <t>鼠标左键+a</t>
+  </si>
+  <si>
+    <t>链接=link</t>
+  </si>
+  <si>
+    <t>attach=a/algin=a</t>
+  </si>
+  <si>
+    <t>1.对齐2.绑定空间</t>
+  </si>
+  <si>
+    <t>请先运行一次3DsMax初始化配置 开始方式按【？】+1键</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="37">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -812,7 +932,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.35"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -847,159 +967,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1014,7 +983,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,194 +993,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="70">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -1440,7 +1223,18 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
         <color auto="1"/>
       </top>
       <bottom style="hair">
@@ -1449,11 +1243,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="hair">
         <color auto="1"/>
       </top>
       <bottom style="hair">
@@ -1462,13 +1258,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
+      <left/>
+      <right/>
+      <top style="hair">
         <color auto="1"/>
       </top>
       <bottom style="hair">
@@ -1478,100 +1270,7 @@
     </border>
     <border>
       <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
@@ -1587,16 +1286,7 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="hair">
@@ -1606,7 +1296,100 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
         <color auto="1"/>
       </right>
       <top/>
@@ -1990,255 +1773,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="62" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="65" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="67" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="62" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="63" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2257,18 +1798,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2281,9 +1816,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2296,20 +1828,371 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2317,383 +2200,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2951,11 +2472,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2965,424 +2487,424 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="65" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="76" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="76" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="77" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="76" customWidth="1"/>
-    <col min="6" max="6" width="40.25" style="65" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="65"/>
-    <col min="8" max="9" width="31.5" style="65" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="65"/>
+    <col min="1" max="1" width="15.125" style="61" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="71" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="71" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="72" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="71" customWidth="1"/>
+    <col min="6" max="6" width="40.25" style="61" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="61"/>
+    <col min="8" max="9" width="31.5" style="61" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" s="74" customFormat="1" ht="23.25" spans="1:6">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:6" s="69" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-    </row>
-    <row r="2" s="117" customFormat="1" ht="15" spans="1:6">
-      <c r="A2" s="120" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+    </row>
+    <row r="2" spans="1:6" s="101" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="121" t="s">
+      <c r="E2" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="122" t="s">
+      <c r="F2" s="106" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="123" t="s">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="127" t="s">
+      <c r="D3" s="108"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="109" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="128"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="114"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="127" t="s">
+      <c r="D4" s="108"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="109" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="128"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="114"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="126"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="127" t="s">
+      <c r="D5" s="108"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="109" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="128"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="127"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="128"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="127"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="128"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="114"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="109"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="114"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="109"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="114"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="127" t="s">
+      <c r="D8" s="108"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="109" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="128"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="127"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="128"/>
-      <c r="B10" s="125" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="114"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="109"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="114"/>
+      <c r="B10" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="126"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="127" t="s">
+      <c r="D10" s="108"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="109" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="128"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="125" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="114"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="127" t="s">
+      <c r="D11" s="108"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="109" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="128"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="114"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="127" t="s">
+      <c r="D12" s="108"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="109" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="128"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="114"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="126"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="127" t="s">
+      <c r="D13" s="108"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="109" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="128"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="114"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="126"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="127" t="s">
+      <c r="D14" s="108"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="109" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="128"/>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="114"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="126"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="127" t="s">
+      <c r="D15" s="108"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="109" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="128"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="127"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="128"/>
-      <c r="B17" s="125"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="127"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="128"/>
-      <c r="B18" s="125" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="114"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="109"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="114"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="109"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="114"/>
+      <c r="B18" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="125" t="s">
+      <c r="C18" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="127" t="s">
+      <c r="D18" s="108"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="109" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="128"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="114"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="127" t="s">
+      <c r="D19" s="108"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="109" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="128"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="125" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="114"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="127" t="s">
+      <c r="D20" s="108"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="109" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="128"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="125" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="114"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="127" t="s">
+      <c r="D21" s="108"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="109" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="128"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="114"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="127" t="s">
+      <c r="D22" s="108"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="109" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="128"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="127"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="128"/>
-      <c r="B24" s="125" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="114"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="109"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="114"/>
+      <c r="B24" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="125" t="s">
+      <c r="C24" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="127" t="s">
+      <c r="D24" s="108"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="109" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="128"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="114"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="126"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="127" t="s">
+      <c r="D25" s="108"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="109" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="128"/>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="127"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="128"/>
-      <c r="B27" s="125"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="127"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="128"/>
-      <c r="B28" s="125"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="127"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="128"/>
-      <c r="B29" s="125"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="127"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="128"/>
-      <c r="B30" s="125" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="114"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="109"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="114"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="109"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="114"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="109"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="114"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="109"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="114"/>
+      <c r="B30" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="125"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="127"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="128"/>
-      <c r="B31" s="125"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="127"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="128"/>
-      <c r="B32" s="125"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="127"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="128"/>
-      <c r="B33" s="125" t="s">
+      <c r="C30" s="107"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="109"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="114"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="109"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="114"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="109"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="114"/>
+      <c r="B33" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="125"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="127"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="128"/>
-      <c r="B34" s="125"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="126"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="127"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="128"/>
-      <c r="B35" s="125"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="127"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="128"/>
-      <c r="B36" s="125"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="126"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="127"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="128"/>
-      <c r="B37" s="125" t="s">
+      <c r="C33" s="107"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="109"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="114"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="109"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="114"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="109"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="114"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="109"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="114"/>
+      <c r="B37" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="125" t="s">
+      <c r="C37" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="126"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="127" t="s">
+      <c r="D37" s="108"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="109" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="129"/>
-      <c r="B38" s="130"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="131"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="132" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="115"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="112" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3398,35 +2920,33 @@
     <mergeCell ref="B37:B38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.393700787401575" right="0.393700787401575" top="0.393700787401575" bottom="0.393700787401575" header="0.196850393700787" footer="0.196850393700787"/>
+  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.196850393700787" footer="0.196850393700787"/>
   <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" verticalDpi="1200"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12" style="65" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="76" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="76" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="77" customWidth="1"/>
-    <col min="5" max="5" width="6" style="76" customWidth="1"/>
-    <col min="6" max="6" width="109.25" style="65" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="65"/>
-    <col min="8" max="9" width="31.5" style="65" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="65"/>
+    <col min="1" max="1" width="12" style="61" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="71" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="71" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="72" customWidth="1"/>
+    <col min="5" max="5" width="6" style="71" customWidth="1"/>
+    <col min="6" max="6" width="109.25" style="61" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="61"/>
+    <col min="8" max="9" width="31.5" style="61" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" s="74" customFormat="1" ht="25.5" spans="1:6">
+    <row r="1" spans="1:9" s="69" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -3436,7 +2956,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" s="75" customFormat="1" ht="16.5" spans="1:6">
+    <row r="2" spans="1:9" s="70" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>48</v>
       </c>
@@ -3456,868 +2976,869 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="75" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:9" s="70" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" s="75" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
+    <row r="4" spans="1:9" s="70" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="119"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" s="65" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-    </row>
-    <row r="6" s="65" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16" t="s">
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="121"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="18" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-    </row>
-    <row r="7" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20" t="s">
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="122"/>
+      <c r="B7" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="23" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79" t="s">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="123"/>
+      <c r="B8" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="33" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="45" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A9" s="78"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="55" t="s">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="123"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="36" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="35"/>
-      <c r="E9" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="36" t="s">
+      <c r="E9" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A10" s="78"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="82" t="s">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="123"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="73" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="36" t="s">
+      <c r="E10" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="46" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A11" s="78"/>
-      <c r="B11" s="83" t="s">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="123"/>
+      <c r="B11" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="86" t="s">
+      <c r="D11" s="75"/>
+      <c r="E11" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="76" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A12" s="78"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="82" t="s">
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="123"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="88"/>
-      <c r="E12" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="89" t="s">
+      <c r="D12" s="77"/>
+      <c r="E12" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A13" s="78"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="55" t="s">
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="123"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="36" t="s">
         <v>74</v>
       </c>
       <c r="D13" s="35"/>
-      <c r="E13" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="36" t="s">
+      <c r="E13" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="46" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A14" s="78"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="55" t="s">
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="123"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="36" t="s">
         <v>76</v>
       </c>
       <c r="D14" s="35"/>
-      <c r="E14" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="57" t="s">
+      <c r="E14" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="37" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A15" s="78"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="90" t="s">
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="123"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="91" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A16" s="78"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="90" t="s">
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="123"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="29" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="42" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A17" s="78"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="90" t="s">
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="123"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="29" t="s">
+      <c r="D17" s="47"/>
+      <c r="E17" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="42" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A18" s="78"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="90" t="s">
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="123"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="29" t="s">
+      <c r="D18" s="47"/>
+      <c r="E18" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="42" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A19" s="78"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="90" t="s">
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="123"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="29" t="s">
+      <c r="D19" s="47"/>
+      <c r="E19" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="42" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A20" s="78"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="90" t="s">
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="123"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="29" t="s">
+      <c r="D20" s="47"/>
+      <c r="E20" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A21" s="78"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="16" t="s">
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="123"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="56" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="33" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A22" s="78"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="16" t="s">
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="123"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="56" t="s">
+      <c r="E22" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A23" s="78"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="16" t="s">
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="123"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="56" t="s">
+      <c r="E23" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="33" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A24" s="78"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="56"/>
-    </row>
-    <row r="25" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A25" s="78"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="16" t="s">
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="123"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="33"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="123"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="56" t="s">
+      <c r="E25" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="33" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A26" s="78"/>
-      <c r="B26" s="92" t="s">
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="123"/>
+      <c r="B26" s="132" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="93"/>
-      <c r="E26" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="95" t="s">
+      <c r="D26" s="81"/>
+      <c r="E26" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="83" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A27" s="78"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="16" t="s">
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="123"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="98" t="s">
+      <c r="D27" s="64"/>
+      <c r="E27" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="85" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A28" s="78"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="16" t="s">
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="123"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="98" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="85" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A29" s="78"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="16" t="s">
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="123"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="98" t="s">
+      <c r="D29" s="14"/>
+      <c r="E29" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="85" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A30" s="78"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="16" t="s">
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="123"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="98" t="s">
+      <c r="E30" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="85" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A31" s="78"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="16" t="s">
+    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="123"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="98" t="s">
+      <c r="D31" s="14"/>
+      <c r="E31" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="85" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="32" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A32" s="78"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="16" t="s">
+    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="123"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="98" t="s">
+      <c r="D32" s="14"/>
+      <c r="E32" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="85" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A33" s="78"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="16" t="s">
+    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="123"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E33" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="98" t="s">
+      <c r="E33" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="85" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="34" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A34" s="78"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="16" t="s">
+    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="123"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="100" t="s">
+      <c r="D34" s="14"/>
+      <c r="E34" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="86" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="35" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A35" s="78"/>
-      <c r="B35" s="96"/>
-      <c r="C35" s="16" t="s">
+    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="123"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E35" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="98" t="s">
+      <c r="E35" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="85" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A36" s="78"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="16" t="s">
+    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="123"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="98" t="s">
+      <c r="E36" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="85" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A37" s="78"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="16" t="s">
+    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="123"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D37" s="101" t="s">
+      <c r="D37" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="E37" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="98" t="s">
+      <c r="E37" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="85" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="38" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A38" s="78"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="16" t="s">
+    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="123"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="101" t="s">
+      <c r="D38" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="E38" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="98" t="s">
+      <c r="E38" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="85" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="39" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A39" s="78"/>
-      <c r="B39" s="96"/>
-      <c r="C39" s="16" t="s">
+    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="123"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D39" s="101" t="s">
+      <c r="D39" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="98" t="s">
+      <c r="E39" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="85" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="40" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A40" s="78"/>
-      <c r="B40" s="96"/>
-      <c r="C40" s="16" t="s">
+    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="123"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="101" t="s">
+      <c r="D40" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="E40" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="98" t="s">
+      <c r="E40" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="85" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="41" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A41" s="78"/>
-      <c r="B41" s="96"/>
-      <c r="C41" s="16" t="s">
+    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="123"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="E41" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" s="98" t="s">
+      <c r="E41" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="85" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="42" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A42" s="78"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="103" t="s">
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="123"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="104" t="s">
+      <c r="D42" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="E42" s="105" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="106" t="s">
+      <c r="E42" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="92" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="43" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A43" s="78"/>
-      <c r="B43" s="15" t="s">
+    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="123"/>
+      <c r="B43" s="135" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="E43" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="54" t="s">
+      <c r="E43" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="56" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="44" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A44" s="78"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="55" t="s">
+    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="123"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="36" t="s">
         <v>140</v>
       </c>
       <c r="D44" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="E44" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="107" t="s">
+      <c r="E44" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="93" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="45" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A45" s="78"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="55" t="s">
+    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="123"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="36" t="s">
         <v>147</v>
       </c>
       <c r="D45" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="E45" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="57" t="s">
+      <c r="E45" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="46" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A46" s="78"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="55"/>
+    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="123"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="36"/>
       <c r="D46" s="35"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="57"/>
-    </row>
-    <row r="47" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A47" s="78"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="55"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="37"/>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="123"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="36"/>
       <c r="D47" s="35"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="57"/>
-    </row>
-    <row r="48" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A48" s="78"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="56"/>
-    </row>
-    <row r="49" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A49" s="30"/>
-      <c r="B49" s="92" t="s">
+      <c r="E47" s="94"/>
+      <c r="F47" s="37"/>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="123"/>
+      <c r="B48" s="135"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="33"/>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="124"/>
+      <c r="B49" s="132" t="s">
         <v>150</v>
       </c>
-      <c r="C49" s="109" t="s">
+      <c r="C49" s="95" t="s">
         <v>151</v>
       </c>
-      <c r="D49" s="110"/>
-      <c r="E49" s="111" t="s">
-        <v>56</v>
-      </c>
-      <c r="F49" s="112" t="s">
+      <c r="D49" s="96"/>
+      <c r="E49" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="98" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="50" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A50" s="30"/>
-      <c r="B50" s="96"/>
-      <c r="C50" s="113" t="s">
+    <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="124"/>
+      <c r="B50" s="133"/>
+      <c r="C50" s="99" t="s">
         <v>153</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F50" s="59" t="s">
+      <c r="F50" s="39" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="51" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A51" s="30"/>
-      <c r="B51" s="114"/>
-      <c r="C51" s="58" t="s">
+    <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="124"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D51" s="52"/>
-      <c r="E51" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="59" t="s">
+      <c r="D51" s="55"/>
+      <c r="E51" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="39" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="52" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A52" s="30"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="115" t="s">
+    <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A52" s="124"/>
+      <c r="B52" s="133"/>
+      <c r="C52" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="D52" s="17"/>
+      <c r="D52" s="14"/>
       <c r="E52" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="59" t="s">
+      <c r="F52" s="39" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="53" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A53" s="30"/>
-      <c r="B53" s="96"/>
-      <c r="C53" s="97" t="s">
+    <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A53" s="124"/>
+      <c r="B53" s="133"/>
+      <c r="C53" s="84" t="s">
         <v>159</v>
       </c>
       <c r="D53" s="35"/>
-      <c r="E53" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F53" s="62" t="s">
+      <c r="E53" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" s="59" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="54" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A54" s="30"/>
-      <c r="B54" s="96"/>
-      <c r="C54" s="55" t="s">
+    <row r="54" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A54" s="124"/>
+      <c r="B54" s="133"/>
+      <c r="C54" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="D54" s="52"/>
-      <c r="E54" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="F54" s="63" t="s">
+      <c r="D54" s="55"/>
+      <c r="E54" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="60" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="55" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A55" s="30"/>
-      <c r="B55" s="96"/>
-      <c r="C55" s="55" t="s">
+    <row r="55" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A55" s="124"/>
+      <c r="B55" s="133"/>
+      <c r="C55" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="D55" s="52"/>
-      <c r="E55" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="F55" s="36" t="s">
+      <c r="D55" s="55"/>
+      <c r="E55" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="46" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="56" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A56" s="30"/>
-      <c r="B56" s="96"/>
-      <c r="C56" s="55" t="s">
+    <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A56" s="124"/>
+      <c r="B56" s="133"/>
+      <c r="C56" s="36" t="s">
         <v>165</v>
       </c>
       <c r="D56" s="35"/>
-      <c r="E56" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F56" s="36" t="s">
+      <c r="E56" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56" s="46" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="57" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A57" s="30"/>
-      <c r="B57" s="114"/>
+    <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A57" s="124"/>
+      <c r="B57" s="136"/>
       <c r="C57" s="34" t="s">
         <v>167</v>
       </c>
       <c r="D57" s="35"/>
-      <c r="E57" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F57" s="36" t="s">
+      <c r="E57" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" s="46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="58" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A58" s="64"/>
-      <c r="B58" s="96"/>
-      <c r="C58" s="55" t="s">
+    <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A58" s="125"/>
+      <c r="B58" s="133"/>
+      <c r="C58" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="E58" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="F58" s="63" t="s">
+      <c r="D58" s="61"/>
+      <c r="E58" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" s="60" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="59" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A59" s="64"/>
-      <c r="B59" s="96"/>
-      <c r="C59" s="66" t="s">
+    <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A59" s="125"/>
+      <c r="B59" s="133"/>
+      <c r="C59" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D59" s="68"/>
-      <c r="E59" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F59" s="63" t="s">
+      <c r="D59" s="64"/>
+      <c r="E59" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" s="60" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="60" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A60" s="64"/>
-      <c r="B60" s="96"/>
-      <c r="C60" s="66" t="s">
+    <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A60" s="125"/>
+      <c r="B60" s="133"/>
+      <c r="C60" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D60" s="68"/>
-      <c r="E60" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="F60" s="63" t="s">
+      <c r="D60" s="64"/>
+      <c r="E60" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60" s="60" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="61" s="65" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A61" s="64"/>
-      <c r="B61" s="96"/>
-      <c r="C61" s="66" t="s">
+    <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="125"/>
+      <c r="B61" s="133"/>
+      <c r="C61" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="D61" s="68"/>
-      <c r="E61" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F61" s="63" t="s">
+      <c r="D61" s="64"/>
+      <c r="E61" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" s="60" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="62" s="65" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A62" s="69"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="73"/>
+    <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="126"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4332,20 +3853,18 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
@@ -4355,7 +3874,7 @@
     <col min="6" max="6" width="88.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:6">
+    <row r="1" spans="1:6" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
@@ -4365,7 +3884,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" ht="16.5" spans="1:6">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>48</v>
       </c>
@@ -4385,511 +3904,511 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8" t="s">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="119"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:6">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:6">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16" t="s">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="121"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="18" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20" t="s">
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="122"/>
+      <c r="B7" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="23" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:6">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25" t="s">
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="138"/>
+      <c r="B8" s="139" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="29" t="s">
+      <c r="D8" s="40"/>
+      <c r="E8" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="42" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:6">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26" t="s">
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="138"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="29" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="42" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:6">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26" t="s">
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="138"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="29" t="s">
+      <c r="D10" s="40"/>
+      <c r="E10" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="42" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:6">
-      <c r="A11" s="30"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="31" t="s">
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="124"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="33" t="s">
+      <c r="E11" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="45" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:6">
-      <c r="A12" s="30"/>
-      <c r="B12" s="25"/>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="124"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="34" t="s">
         <v>117</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="E12" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="36" t="s">
+      <c r="E12" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="46" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:6">
-      <c r="A13" s="30"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="15" t="s">
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="124"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="29" t="s">
+      <c r="D13" s="47"/>
+      <c r="E13" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="42" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:6">
-      <c r="A14" s="30"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="39" t="s">
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="124"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="42" t="s">
+      <c r="D14" s="50"/>
+      <c r="E14" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="52" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:6">
-      <c r="A15" s="30"/>
-      <c r="B15" s="43" t="s">
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="124"/>
+      <c r="B15" s="140" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="46" t="s">
+      <c r="D15" s="28"/>
+      <c r="E15" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:6">
-      <c r="A16" s="30"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="25" t="s">
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="124"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="48" t="s">
+      <c r="D16" s="25"/>
+      <c r="E16" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="53" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:6">
-      <c r="A17" s="30"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="25" t="s">
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="124"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="46" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="23" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:6">
-      <c r="A18" s="30"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="44" t="s">
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="124"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="E18" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="46" t="s">
+      <c r="E18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="23" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:6">
-      <c r="A19" s="30"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44" t="s">
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="124"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="46" t="s">
+      <c r="D19" s="28"/>
+      <c r="E19" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:6">
-      <c r="A20" s="30"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44" t="s">
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="124"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="50" t="s">
+      <c r="E20" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="30" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:6">
-      <c r="A21" s="30"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="46"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:6">
-      <c r="A22" s="30"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="46"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:6">
-      <c r="A23" s="30"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:6">
-      <c r="A24" s="30"/>
-      <c r="B24" s="25" t="s">
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="124"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="23"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="124"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="124"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="124"/>
+      <c r="B24" s="139" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="E24" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="54" t="s">
+      <c r="E24" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="56" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:6">
-      <c r="A25" s="30"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26" t="s">
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="124"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="56" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="33" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:6">
-      <c r="A26" s="30"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26" t="s">
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="124"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="56" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="33" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:6">
-      <c r="A27" s="30"/>
-      <c r="B27" s="25"/>
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="124"/>
+      <c r="B27" s="139"/>
       <c r="C27" s="34" t="s">
         <v>210</v>
       </c>
       <c r="D27" s="35"/>
-      <c r="E27" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="57" t="s">
+      <c r="E27" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="37" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:6">
-      <c r="A28" s="30"/>
-      <c r="B28" s="25"/>
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="124"/>
+      <c r="B28" s="139"/>
       <c r="C28" s="34" t="s">
         <v>108</v>
       </c>
       <c r="D28" s="35"/>
-      <c r="E28" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="57" t="s">
+      <c r="E28" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="37" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:6">
-      <c r="A29" s="30"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26" t="s">
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="124"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="56" t="s">
+      <c r="D29" s="14"/>
+      <c r="E29" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="33" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:6">
-      <c r="A30" s="30"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26" t="s">
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="124"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="56" t="s">
+      <c r="D30" s="14"/>
+      <c r="E30" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="33" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:6">
-      <c r="A31" s="30"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="58" t="s">
+    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="124"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="38" t="s">
         <v>140</v>
       </c>
       <c r="D31" s="35"/>
-      <c r="E31" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="59" t="s">
+      <c r="E31" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="39" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:6">
-      <c r="A32" s="30"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="58" t="s">
+    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="124"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="52"/>
-      <c r="E32" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="59" t="s">
+      <c r="D32" s="55"/>
+      <c r="E32" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="39" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:6">
-      <c r="A33" s="30"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="17"/>
+    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="124"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="34"/>
-      <c r="F33" s="59"/>
-    </row>
-    <row r="34" ht="16.5" spans="1:6">
-      <c r="A34" s="30"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="61"/>
+      <c r="F33" s="39"/>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="124"/>
+      <c r="B34" s="139"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="35"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="62"/>
-    </row>
-    <row r="35" ht="16.5" spans="1:6">
-      <c r="A35" s="30"/>
-      <c r="B35" s="25"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="59"/>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="124"/>
+      <c r="B35" s="139"/>
       <c r="C35" s="34"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="63"/>
-    </row>
-    <row r="36" ht="16.5" spans="1:6">
-      <c r="A36" s="30"/>
-      <c r="B36" s="25"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="60"/>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="124"/>
+      <c r="B36" s="139"/>
       <c r="C36" s="34"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="36"/>
-    </row>
-    <row r="37" ht="16.5" spans="1:6">
-      <c r="A37" s="30"/>
-      <c r="B37" s="25"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="46"/>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="124"/>
+      <c r="B37" s="139"/>
       <c r="C37" s="34"/>
       <c r="D37" s="35"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="36"/>
-    </row>
-    <row r="38" ht="16.5" spans="1:6">
-      <c r="A38" s="30"/>
-      <c r="B38" s="25"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="46"/>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="124"/>
+      <c r="B38" s="139"/>
       <c r="C38" s="34"/>
       <c r="D38" s="35"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="36"/>
-    </row>
-    <row r="39" ht="16.5" spans="1:6">
-      <c r="A39" s="64"/>
-      <c r="B39" s="25"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="46"/>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="125"/>
+      <c r="B39" s="139"/>
       <c r="C39" s="34"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="63"/>
-    </row>
-    <row r="40" ht="16.5" spans="1:6">
-      <c r="A40" s="64"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="63"/>
-    </row>
-    <row r="41" ht="16.5" spans="1:6">
-      <c r="A41" s="64"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="63"/>
-    </row>
-    <row r="42" ht="16.5" spans="1:6">
-      <c r="A42" s="64"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="63"/>
-    </row>
-    <row r="43" ht="17.25" spans="1:6">
-      <c r="A43" s="69"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="73"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="60"/>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="125"/>
+      <c r="B40" s="139"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="60"/>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="125"/>
+      <c r="B41" s="139"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="60"/>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="125"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="60"/>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="126"/>
+      <c r="B43" s="139"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4901,6 +4420,582 @@
     <mergeCell ref="B24:B43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="77.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="119"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="120" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="121"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="122"/>
+      <c r="B7" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="138"/>
+      <c r="B8" s="139" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="138"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="138"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="138"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="124"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="124"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="124"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="124"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="124"/>
+      <c r="B16" s="140" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="124"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="124"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="124"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="124"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="124"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="124"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="124"/>
+      <c r="B23" s="140"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="124"/>
+      <c r="B24" s="140"/>
+      <c r="C24" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="124"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="124"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="124"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="124"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="124"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="29"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="124"/>
+      <c r="B30" s="139" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="124"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="23"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="124"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="33"/>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="124"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="37"/>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="124"/>
+      <c r="B34" s="139"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="37"/>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="124"/>
+      <c r="B35" s="139"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="33"/>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="124"/>
+      <c r="B36" s="139"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="33"/>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="124"/>
+      <c r="B37" s="139"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="39"/>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="24"/>
+      <c r="B38" s="139" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="28"/>
+      <c r="E38" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="24"/>
+      <c r="B39" s="139"/>
+      <c r="C39" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="28"/>
+      <c r="E39" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="24"/>
+      <c r="B40" s="139"/>
+      <c r="C40" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="24"/>
+      <c r="B41" s="139"/>
+      <c r="C41" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="24"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="37"/>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="24"/>
+      <c r="B43" s="139"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="33"/>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="24"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="33"/>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="24"/>
+      <c r="B45" s="139"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A37"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="B16:B29"/>
+    <mergeCell ref="B30:B37"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Vimdesktop_BoBO版本热键说明.xlsx
+++ b/Vimdesktop_BoBO版本热键说明.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="0" windowWidth="24240" windowHeight="9810" activeTab="3"/>
+    <workbookView xWindow="6450" yWindow="0" windowWidth="24240" windowHeight="9810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Custom" sheetId="10" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="256">
   <si>
     <t>QZ_Custom内 VIMD模式及热键说明</t>
   </si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>返回上级目录</t>
-  </si>
-  <si>
-    <t>Adobe AfterEffect VIMD模式及热键说明 20190902 版本2.1</t>
   </si>
   <si>
     <t>模式</t>
@@ -754,9 +751,6 @@
     <t>2.双水平翻转3.长按当前图层水平翻转</t>
   </si>
   <si>
-    <t>3DsMax VIMD模式及热键说明 20190902 版本1.0</t>
-  </si>
-  <si>
     <t>1.默认2.双击渲染</t>
   </si>
   <si>
@@ -851,13 +845,34 @@
   </si>
   <si>
     <t>请先运行一次3DsMax初始化配置 开始方式按【？】+1键</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>CapsLock</t>
+  </si>
+  <si>
+    <t>3DsMax VIMD模式及热键说明 20192023 版本1.0</t>
+  </si>
+  <si>
+    <t>搜索快捷命令</t>
+  </si>
+  <si>
+    <t>还原Tab功能</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>Adobe AfterEffect VIMD模式及热键说明 20191023 版本2.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -967,6 +982,35 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -994,7 +1038,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -1773,13 +1817,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2119,6 +2187,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2161,15 +2241,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2202,6 +2273,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2531,10 +2617,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="120" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="107" t="s">
@@ -2547,8 +2633,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="114"/>
-      <c r="B4" s="117"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="107" t="s">
         <v>11</v>
       </c>
@@ -2559,8 +2645,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="114"/>
-      <c r="B5" s="117"/>
+      <c r="A5" s="118"/>
+      <c r="B5" s="121"/>
       <c r="C5" s="107" t="s">
         <v>13</v>
       </c>
@@ -2571,24 +2657,24 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="114"/>
-      <c r="B6" s="117"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="121"/>
       <c r="C6" s="107"/>
       <c r="D6" s="108"/>
       <c r="E6" s="107"/>
       <c r="F6" s="109"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="114"/>
-      <c r="B7" s="117"/>
+      <c r="A7" s="118"/>
+      <c r="B7" s="121"/>
       <c r="C7" s="107"/>
       <c r="D7" s="108"/>
       <c r="E7" s="107"/>
       <c r="F7" s="109"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="114"/>
-      <c r="B8" s="117"/>
+      <c r="A8" s="118"/>
+      <c r="B8" s="121"/>
       <c r="C8" s="107" t="s">
         <v>15</v>
       </c>
@@ -2599,7 +2685,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="114"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="107"/>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -2607,8 +2693,8 @@
       <c r="F9" s="109"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="114"/>
-      <c r="B10" s="117" t="s">
+      <c r="A10" s="118"/>
+      <c r="B10" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="107" t="s">
@@ -2621,8 +2707,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="114"/>
-      <c r="B11" s="117"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="107" t="s">
         <v>20</v>
       </c>
@@ -2633,8 +2719,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="114"/>
-      <c r="B12" s="117"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="107" t="s">
         <v>22</v>
       </c>
@@ -2645,8 +2731,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="114"/>
-      <c r="B13" s="117"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="107" t="s">
         <v>24</v>
       </c>
@@ -2657,8 +2743,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="114"/>
-      <c r="B14" s="117"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="121"/>
       <c r="C14" s="107" t="s">
         <v>26</v>
       </c>
@@ -2669,8 +2755,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="114"/>
-      <c r="B15" s="117"/>
+      <c r="A15" s="118"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="107" t="s">
         <v>28</v>
       </c>
@@ -2681,7 +2767,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="114"/>
+      <c r="A16" s="118"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -2689,7 +2775,7 @@
       <c r="F16" s="109"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="114"/>
+      <c r="A17" s="118"/>
       <c r="B17" s="107"/>
       <c r="C17" s="107"/>
       <c r="D17" s="108"/>
@@ -2697,8 +2783,8 @@
       <c r="F17" s="109"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="114"/>
-      <c r="B18" s="117" t="s">
+      <c r="A18" s="118"/>
+      <c r="B18" s="121" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="107" t="s">
@@ -2711,8 +2797,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="114"/>
-      <c r="B19" s="117"/>
+      <c r="A19" s="118"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="107" t="s">
         <v>33</v>
       </c>
@@ -2723,8 +2809,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="114"/>
-      <c r="B20" s="117"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="121"/>
       <c r="C20" s="107" t="s">
         <v>35</v>
       </c>
@@ -2735,8 +2821,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="114"/>
-      <c r="B21" s="117"/>
+      <c r="A21" s="118"/>
+      <c r="B21" s="121"/>
       <c r="C21" s="107" t="s">
         <v>36</v>
       </c>
@@ -2747,8 +2833,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="114"/>
-      <c r="B22" s="117"/>
+      <c r="A22" s="118"/>
+      <c r="B22" s="121"/>
       <c r="C22" s="107" t="s">
         <v>38</v>
       </c>
@@ -2759,7 +2845,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="114"/>
+      <c r="A23" s="118"/>
       <c r="B23" s="107"/>
       <c r="C23" s="107"/>
       <c r="D23" s="108"/>
@@ -2767,8 +2853,8 @@
       <c r="F23" s="109"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="114"/>
-      <c r="B24" s="117" t="s">
+      <c r="A24" s="118"/>
+      <c r="B24" s="121" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="107" t="s">
@@ -2781,8 +2867,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="114"/>
-      <c r="B25" s="117"/>
+      <c r="A25" s="118"/>
+      <c r="B25" s="121"/>
       <c r="C25" s="107" t="s">
         <v>11</v>
       </c>
@@ -2793,31 +2879,31 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="114"/>
-      <c r="B26" s="117"/>
+      <c r="A26" s="118"/>
+      <c r="B26" s="121"/>
       <c r="C26" s="107"/>
       <c r="D26" s="108"/>
       <c r="E26" s="107"/>
       <c r="F26" s="109"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="114"/>
-      <c r="B27" s="117"/>
+      <c r="A27" s="118"/>
+      <c r="B27" s="121"/>
       <c r="C27" s="107"/>
       <c r="D27" s="108"/>
       <c r="E27" s="107"/>
       <c r="F27" s="109"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="114"/>
-      <c r="B28" s="117"/>
+      <c r="A28" s="118"/>
+      <c r="B28" s="121"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
       <c r="E28" s="107"/>
       <c r="F28" s="109"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="114"/>
+      <c r="A29" s="118"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -2825,8 +2911,8 @@
       <c r="F29" s="109"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="114"/>
-      <c r="B30" s="117" t="s">
+      <c r="A30" s="118"/>
+      <c r="B30" s="121" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="107"/>
@@ -2835,15 +2921,15 @@
       <c r="F30" s="109"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="114"/>
-      <c r="B31" s="117"/>
+      <c r="A31" s="118"/>
+      <c r="B31" s="121"/>
       <c r="C31" s="107"/>
       <c r="D31" s="108"/>
       <c r="E31" s="107"/>
       <c r="F31" s="109"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="114"/>
+      <c r="A32" s="118"/>
       <c r="B32" s="107"/>
       <c r="C32" s="107"/>
       <c r="D32" s="108"/>
@@ -2851,8 +2937,8 @@
       <c r="F32" s="109"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="114"/>
-      <c r="B33" s="117" t="s">
+      <c r="A33" s="118"/>
+      <c r="B33" s="121" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="107"/>
@@ -2861,23 +2947,23 @@
       <c r="F33" s="109"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="114"/>
-      <c r="B34" s="117"/>
+      <c r="A34" s="118"/>
+      <c r="B34" s="121"/>
       <c r="C34" s="107"/>
       <c r="D34" s="108"/>
       <c r="E34" s="107"/>
       <c r="F34" s="109"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="114"/>
-      <c r="B35" s="117"/>
+      <c r="A35" s="118"/>
+      <c r="B35" s="121"/>
       <c r="C35" s="107"/>
       <c r="D35" s="108"/>
       <c r="E35" s="107"/>
       <c r="F35" s="109"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="114"/>
+      <c r="A36" s="118"/>
       <c r="B36" s="107"/>
       <c r="C36" s="107"/>
       <c r="D36" s="108"/>
@@ -2885,8 +2971,8 @@
       <c r="F36" s="109"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="114"/>
-      <c r="B37" s="117" t="s">
+      <c r="A37" s="118"/>
+      <c r="B37" s="121" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="107" t="s">
@@ -2899,8 +2985,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="115"/>
-      <c r="B38" s="118"/>
+      <c r="A38" s="119"/>
+      <c r="B38" s="122"/>
       <c r="C38" s="110"/>
       <c r="D38" s="111"/>
       <c r="E38" s="110"/>
@@ -2927,10 +3013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2947,8 +3033,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="69" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>47</v>
+      <c r="A1" s="115" t="s">
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2958,7 +3044,7 @@
     </row>
     <row r="2" spans="1:9" s="70" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -2977,882 +3063,910 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="70" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="119" t="s">
-        <v>49</v>
+      <c r="A3" s="123" t="s">
+        <v>48</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="4" spans="1:9" s="70" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="119"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="124" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="120" t="s">
+      <c r="B5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="G5" s="71"/>
       <c r="H5" s="71"/>
       <c r="I5" s="71"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="121"/>
+      <c r="A6" s="125"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" s="71"/>
       <c r="H6" s="71"/>
       <c r="I6" s="71"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="122"/>
+      <c r="A7" s="126"/>
       <c r="B7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>59</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>60</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="127"/>
+      <c r="B8" s="143" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="123"/>
-      <c r="B8" s="127" t="s">
+      <c r="C8" s="41" t="s">
         <v>62</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>63</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="127"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="36" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="123"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="36" t="s">
-        <v>65</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="127"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="73" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="123"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="73" t="s">
+      <c r="D10" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="E10" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="46" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="127"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="145" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="114" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="127"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="142" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" s="55"/>
+      <c r="E12" s="113" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="146" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="127"/>
+      <c r="B13" s="131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="74" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="123"/>
-      <c r="B11" s="130" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="74" t="s">
+      <c r="D13" s="75"/>
+      <c r="E13" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="76" t="s">
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="127"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="73" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="123"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="73" t="s">
+      <c r="D14" s="77"/>
+      <c r="E14" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="78" t="s">
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="127"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="36" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="123"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="36" t="s">
+      <c r="D15" s="35"/>
+      <c r="E15" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="46" t="s">
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="127"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="36" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="123"/>
-      <c r="B14" s="131"/>
-      <c r="C14" s="36" t="s">
+      <c r="D16" s="35"/>
+      <c r="E16" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="37" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="127"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="79" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="123"/>
-      <c r="B15" s="131"/>
-      <c r="C15" s="79" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="80" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="127"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="79" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="123"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="123"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="123"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="79" t="s">
-        <v>84</v>
       </c>
       <c r="D18" s="47"/>
       <c r="E18" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="123"/>
-      <c r="B19" s="131"/>
+      <c r="A19" s="127"/>
+      <c r="B19" s="132"/>
       <c r="C19" s="79" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D19" s="47"/>
       <c r="E19" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="123"/>
-      <c r="B20" s="131"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="132"/>
       <c r="C20" s="79" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D20" s="47"/>
       <c r="E20" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20" s="42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="127"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="127"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="127"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="13" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="123"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="13" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="33" t="s">
+    </row>
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="127"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="123"/>
-      <c r="B22" s="131"/>
-      <c r="C22" s="13" t="s">
+      <c r="D24" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="E24" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="33" t="s">
+    </row>
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="127"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="123"/>
-      <c r="B23" s="131"/>
-      <c r="C23" s="13" t="s">
+      <c r="D25" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="E25" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="33" t="s">
+    </row>
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="127"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="33"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="127"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="123"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="33"/>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="123"/>
-      <c r="B25" s="131"/>
-      <c r="C25" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="14" t="s">
+      <c r="E27" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="33" t="s">
+    </row>
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="127"/>
+      <c r="B28" s="133" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="123"/>
-      <c r="B26" s="132" t="s">
+      <c r="C28" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="D28" s="81"/>
+      <c r="E28" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="81"/>
-      <c r="E26" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="83" t="s">
+    </row>
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="127"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="13" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="123"/>
-      <c r="B27" s="133"/>
-      <c r="C27" s="13" t="s">
+      <c r="D29" s="64"/>
+      <c r="E29" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="85" t="s">
+    </row>
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="127"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="13" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="123"/>
-      <c r="B28" s="133"/>
-      <c r="C28" s="13" t="s">
+      <c r="D30" s="14"/>
+      <c r="E30" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="85" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="123"/>
-      <c r="B29" s="133"/>
-      <c r="C29" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="85" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="123"/>
-      <c r="B30" s="133"/>
-      <c r="C30" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="85" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="123"/>
+      <c r="A31" s="127"/>
       <c r="B31" s="134"/>
       <c r="C31" s="13" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F31" s="85" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="127"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="127"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="127"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="13" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="123"/>
-      <c r="B32" s="133"/>
-      <c r="C32" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="85" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="123"/>
-      <c r="B33" s="133"/>
-      <c r="C33" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="85" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="123"/>
-      <c r="B34" s="133"/>
-      <c r="C34" s="13" t="s">
-        <v>117</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="127"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="127"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="127"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="13" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="123"/>
-      <c r="B35" s="133"/>
-      <c r="C35" s="13" t="s">
+      <c r="D37" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="E37" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="E35" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="85" t="s">
+    </row>
+    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="127"/>
+      <c r="B38" s="134"/>
+      <c r="C38" s="13" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="123"/>
-      <c r="B36" s="133"/>
-      <c r="C36" s="13" t="s">
+      <c r="D38" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="E38" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="85" t="s">
+    </row>
+    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="127"/>
+      <c r="B39" s="134"/>
+      <c r="C39" s="13" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="123"/>
-      <c r="B37" s="133"/>
-      <c r="C37" s="13" t="s">
+      <c r="D39" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="D37" s="87" t="s">
+      <c r="E39" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="E37" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="85" t="s">
+    </row>
+    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="127"/>
+      <c r="B40" s="134"/>
+      <c r="C40" s="13" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="123"/>
-      <c r="B38" s="133"/>
-      <c r="C38" s="13" t="s">
+      <c r="D40" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="87" t="s">
+      <c r="E40" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="E38" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="85" t="s">
+    </row>
+    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="127"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="13" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="123"/>
-      <c r="B39" s="133"/>
-      <c r="C39" s="13" t="s">
+      <c r="D41" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="D39" s="87" t="s">
+      <c r="E41" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="85" t="s">
+    </row>
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="127"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="13" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="123"/>
-      <c r="B40" s="133"/>
-      <c r="C40" s="13" t="s">
+      <c r="D42" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="87" t="s">
+      <c r="E42" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="E40" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="85" t="s">
+    </row>
+    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="127"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="13" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="123"/>
-      <c r="B41" s="133"/>
-      <c r="C41" s="13" t="s">
+      <c r="D43" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="E43" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="E41" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" s="85" t="s">
+    </row>
+    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="127"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="89" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="123"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="89" t="s">
+      <c r="D44" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="90" t="s">
+      <c r="E44" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="92" t="s">
         <v>141</v>
       </c>
-      <c r="E42" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="92" t="s">
+    </row>
+    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="127"/>
+      <c r="B45" s="136" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="123"/>
-      <c r="B43" s="135" t="s">
+      <c r="C45" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="55" t="s">
+      <c r="E45" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="E43" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="56" t="s">
+    </row>
+    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="127"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="93" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="123"/>
-      <c r="B44" s="135"/>
-      <c r="C44" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="E44" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="93" t="s">
+    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="127"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="36" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="123"/>
-      <c r="B45" s="135"/>
-      <c r="C45" s="36" t="s">
+      <c r="D47" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="E47" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="E45" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="37" t="s">
+    </row>
+    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="127"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="37"/>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="127"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="37"/>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="127"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="33"/>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="128"/>
+      <c r="B51" s="133" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="123"/>
-      <c r="B46" s="135"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="37"/>
-    </row>
-    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="123"/>
-      <c r="B47" s="135"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="37"/>
-    </row>
-    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="123"/>
-      <c r="B48" s="135"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="33"/>
-    </row>
-    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="124"/>
-      <c r="B49" s="132" t="s">
+      <c r="C51" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="C49" s="95" t="s">
+      <c r="D51" s="96"/>
+      <c r="E51" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="D49" s="96"/>
-      <c r="E49" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="F49" s="98" t="s">
+    </row>
+    <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A52" s="128"/>
+      <c r="B52" s="134"/>
+      <c r="C52" s="99" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="124"/>
-      <c r="B50" s="133"/>
-      <c r="C50" s="99" t="s">
+      <c r="D52" s="35"/>
+      <c r="E52" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="D50" s="35"/>
-      <c r="E50" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F50" s="39" t="s">
+    </row>
+    <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A53" s="128"/>
+      <c r="B53" s="137"/>
+      <c r="C53" s="38" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="124"/>
-      <c r="B51" s="136"/>
-      <c r="C51" s="38" t="s">
+      <c r="D53" s="55"/>
+      <c r="E53" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="D51" s="55"/>
-      <c r="E51" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="39" t="s">
+    </row>
+    <row r="54" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A54" s="128"/>
+      <c r="B54" s="134"/>
+      <c r="C54" s="100" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="124"/>
-      <c r="B52" s="133"/>
-      <c r="C52" s="100" t="s">
+      <c r="D54" s="14"/>
+      <c r="E54" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="39" t="s">
+    </row>
+    <row r="55" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A55" s="128"/>
+      <c r="B55" s="134"/>
+      <c r="C55" s="84" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="124"/>
-      <c r="B53" s="133"/>
-      <c r="C53" s="84" t="s">
+      <c r="D55" s="35"/>
+      <c r="E55" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="D53" s="35"/>
-      <c r="E53" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F53" s="59" t="s">
+    </row>
+    <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A56" s="128"/>
+      <c r="B56" s="134"/>
+      <c r="C56" s="36" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="124"/>
-      <c r="B54" s="133"/>
-      <c r="C54" s="36" t="s">
+      <c r="D56" s="55"/>
+      <c r="E56" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="D54" s="55"/>
-      <c r="E54" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F54" s="60" t="s">
+    </row>
+    <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A57" s="128"/>
+      <c r="B57" s="134"/>
+      <c r="C57" s="36" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="124"/>
-      <c r="B55" s="133"/>
-      <c r="C55" s="36" t="s">
+      <c r="D57" s="55"/>
+      <c r="E57" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="D55" s="55"/>
-      <c r="E55" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F55" s="46" t="s">
+    </row>
+    <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A58" s="128"/>
+      <c r="B58" s="134"/>
+      <c r="C58" s="36" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="124"/>
-      <c r="B56" s="133"/>
-      <c r="C56" s="36" t="s">
+      <c r="D58" s="35"/>
+      <c r="E58" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="D56" s="35"/>
-      <c r="E56" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F56" s="46" t="s">
+    </row>
+    <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A59" s="128"/>
+      <c r="B59" s="137"/>
+      <c r="C59" s="34" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="124"/>
-      <c r="B57" s="136"/>
-      <c r="C57" s="34" t="s">
+      <c r="D59" s="35"/>
+      <c r="E59" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="D57" s="35"/>
-      <c r="E57" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F57" s="46" t="s">
+    </row>
+    <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A60" s="129"/>
+      <c r="B60" s="134"/>
+      <c r="C60" s="36" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="125"/>
-      <c r="B58" s="133"/>
-      <c r="C58" s="36" t="s">
+      <c r="D60" s="61"/>
+      <c r="E60" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="D58" s="61"/>
-      <c r="E58" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="F58" s="60" t="s">
+    </row>
+    <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="129"/>
+      <c r="B61" s="134"/>
+      <c r="C61" s="62" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="125"/>
-      <c r="B59" s="133"/>
-      <c r="C59" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="D59" s="64"/>
-      <c r="E59" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F59" s="60" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="125"/>
-      <c r="B60" s="133"/>
-      <c r="C60" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="D60" s="64"/>
-      <c r="E60" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="F60" s="60" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="125"/>
-      <c r="B61" s="133"/>
-      <c r="C61" s="62" t="s">
-        <v>87</v>
       </c>
       <c r="D61" s="64"/>
       <c r="E61" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F61" s="60" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="126"/>
-      <c r="B62" s="137"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="68"/>
+      <c r="A62" s="129"/>
+      <c r="B62" s="134"/>
+      <c r="C62" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="D62" s="64"/>
+      <c r="E62" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="60" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A63" s="129"/>
+      <c r="B63" s="134"/>
+      <c r="C63" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="64"/>
+      <c r="E63" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" s="60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A64" s="130"/>
+      <c r="B64" s="138"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A62"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B25"/>
-    <mergeCell ref="B26:B41"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="B49:B62"/>
+    <mergeCell ref="A7:A64"/>
+    <mergeCell ref="B13:B27"/>
+    <mergeCell ref="B28:B43"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B51:B64"/>
+    <mergeCell ref="B8:B12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3876,7 +3990,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3886,7 +4000,7 @@
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -3905,506 +4019,506 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="119" t="s">
-        <v>49</v>
+      <c r="A3" s="123" t="s">
+        <v>48</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="119"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="124" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="121"/>
+      <c r="A6" s="125"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="122"/>
+      <c r="A7" s="126"/>
       <c r="B7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>59</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>60</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="138"/>
-      <c r="B8" s="139" t="s">
-        <v>181</v>
+      <c r="A8" s="139"/>
+      <c r="B8" s="140" t="s">
+        <v>180</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="42" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="139"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="31" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="138"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="31" t="s">
-        <v>183</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="138"/>
-      <c r="B10" s="139"/>
+      <c r="A10" s="139"/>
+      <c r="B10" s="140"/>
       <c r="C10" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="128"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="44" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="124"/>
-      <c r="B11" s="139"/>
-      <c r="C11" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="44" t="s">
+      <c r="E11" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="45" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="128"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="35" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="124"/>
-      <c r="B12" s="139"/>
-      <c r="C12" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="35" t="s">
+      <c r="E12" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="E12" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="46" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="128"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="12" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="124"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="12" t="s">
-        <v>190</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="124"/>
-      <c r="B14" s="139"/>
+      <c r="A14" s="128"/>
+      <c r="B14" s="140"/>
       <c r="C14" s="49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="124"/>
-      <c r="B15" s="140" t="s">
+      <c r="A15" s="128"/>
+      <c r="B15" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>192</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>193</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="128"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="20" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="124"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="20" t="s">
-        <v>195</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" s="53" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="128"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="20" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="124"/>
-      <c r="B17" s="140"/>
-      <c r="C17" s="20" t="s">
-        <v>197</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="128"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="28" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="124"/>
-      <c r="B18" s="140"/>
-      <c r="C18" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="28" t="s">
+      <c r="E18" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="E18" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>200</v>
-      </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="124"/>
-      <c r="B19" s="140"/>
+      <c r="A19" s="128"/>
+      <c r="B19" s="141"/>
       <c r="C19" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="128"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="21" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="124"/>
-      <c r="B20" s="140"/>
-      <c r="C20" s="21" t="s">
+      <c r="D20" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="E20" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="124"/>
-      <c r="B21" s="140"/>
+      <c r="A21" s="128"/>
+      <c r="B21" s="141"/>
       <c r="C21" s="21"/>
       <c r="D21" s="28"/>
       <c r="E21" s="21"/>
       <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="124"/>
-      <c r="B22" s="140"/>
+      <c r="A22" s="128"/>
+      <c r="B22" s="141"/>
       <c r="C22" s="21"/>
       <c r="D22" s="28"/>
       <c r="E22" s="21"/>
       <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="124"/>
-      <c r="B23" s="140"/>
+      <c r="A23" s="128"/>
+      <c r="B23" s="141"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
       <c r="F23" s="29"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="124"/>
-      <c r="B24" s="139" t="s">
+      <c r="A24" s="128"/>
+      <c r="B24" s="140" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="56" t="s">
-        <v>206</v>
-      </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="124"/>
-      <c r="B25" s="139"/>
+      <c r="A25" s="128"/>
+      <c r="B25" s="140"/>
       <c r="C25" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F25" s="33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="128"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="31" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="124"/>
-      <c r="B26" s="139"/>
-      <c r="C26" s="31" t="s">
-        <v>208</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F26" s="33" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="128"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="34" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="124"/>
-      <c r="B27" s="139"/>
-      <c r="C27" s="34" t="s">
-        <v>210</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="124"/>
-      <c r="B28" s="139"/>
+      <c r="A28" s="128"/>
+      <c r="B28" s="140"/>
       <c r="C28" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="124"/>
-      <c r="B29" s="139"/>
+      <c r="A29" s="128"/>
+      <c r="B29" s="140"/>
       <c r="C29" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" s="33" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="128"/>
+      <c r="B30" s="140"/>
+      <c r="C30" s="31" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="124"/>
-      <c r="B30" s="139"/>
-      <c r="C30" s="31" t="s">
-        <v>214</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="124"/>
-      <c r="B31" s="139"/>
+      <c r="A31" s="128"/>
+      <c r="B31" s="140"/>
       <c r="C31" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="124"/>
-      <c r="B32" s="139"/>
+      <c r="A32" s="128"/>
+      <c r="B32" s="140"/>
       <c r="C32" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D32" s="55"/>
       <c r="E32" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="124"/>
-      <c r="B33" s="139"/>
+      <c r="A33" s="128"/>
+      <c r="B33" s="140"/>
       <c r="C33" s="57"/>
       <c r="D33" s="14"/>
       <c r="E33" s="34"/>
       <c r="F33" s="39"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="124"/>
-      <c r="B34" s="139"/>
+      <c r="A34" s="128"/>
+      <c r="B34" s="140"/>
       <c r="C34" s="58"/>
       <c r="D34" s="35"/>
       <c r="E34" s="31"/>
       <c r="F34" s="59"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="124"/>
-      <c r="B35" s="139"/>
+      <c r="A35" s="128"/>
+      <c r="B35" s="140"/>
       <c r="C35" s="34"/>
       <c r="D35" s="55"/>
       <c r="E35" s="38"/>
       <c r="F35" s="60"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="124"/>
-      <c r="B36" s="139"/>
+      <c r="A36" s="128"/>
+      <c r="B36" s="140"/>
       <c r="C36" s="34"/>
       <c r="D36" s="55"/>
       <c r="E36" s="32"/>
       <c r="F36" s="46"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="124"/>
-      <c r="B37" s="139"/>
+      <c r="A37" s="128"/>
+      <c r="B37" s="140"/>
       <c r="C37" s="34"/>
       <c r="D37" s="35"/>
       <c r="E37" s="36"/>
       <c r="F37" s="46"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="124"/>
-      <c r="B38" s="139"/>
+      <c r="A38" s="128"/>
+      <c r="B38" s="140"/>
       <c r="C38" s="34"/>
       <c r="D38" s="35"/>
       <c r="E38" s="36"/>
       <c r="F38" s="46"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="125"/>
-      <c r="B39" s="139"/>
+      <c r="A39" s="129"/>
+      <c r="B39" s="140"/>
       <c r="C39" s="34"/>
       <c r="D39" s="61"/>
       <c r="E39" s="62"/>
       <c r="F39" s="60"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="125"/>
-      <c r="B40" s="139"/>
+      <c r="A40" s="129"/>
+      <c r="B40" s="140"/>
       <c r="C40" s="63"/>
       <c r="D40" s="64"/>
       <c r="E40" s="36"/>
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="125"/>
-      <c r="B41" s="139"/>
+      <c r="A41" s="129"/>
+      <c r="B41" s="140"/>
       <c r="C41" s="63"/>
       <c r="D41" s="64"/>
       <c r="E41" s="62"/>
       <c r="F41" s="60"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="125"/>
-      <c r="B42" s="139"/>
+      <c r="A42" s="129"/>
+      <c r="B42" s="140"/>
       <c r="C42" s="63"/>
       <c r="D42" s="64"/>
       <c r="E42" s="36"/>
       <c r="F42" s="60"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="126"/>
-      <c r="B43" s="139"/>
+      <c r="A43" s="130"/>
+      <c r="B43" s="140"/>
       <c r="C43" s="65"/>
       <c r="D43" s="66"/>
       <c r="E43" s="67"/>
@@ -4427,8 +4541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="C13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4441,8 +4555,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>218</v>
+      <c r="A1" s="115" t="s">
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4452,7 +4566,7 @@
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -4471,19 +4585,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="119" t="s">
-        <v>49</v>
+      <c r="A3" s="123" t="s">
+        <v>48</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="119"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -4491,472 +4605,478 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="124" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="121"/>
+      <c r="A6" s="125"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="122"/>
+      <c r="A7" s="126"/>
       <c r="B7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>59</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>60</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="138"/>
-      <c r="B8" s="139" t="s">
-        <v>181</v>
+      <c r="A8" s="139"/>
+      <c r="B8" s="140" t="s">
+        <v>180</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="138"/>
-      <c r="B9" s="139"/>
+      <c r="A9" s="139"/>
+      <c r="B9" s="140"/>
       <c r="C9" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="138"/>
-      <c r="B10" s="139"/>
+      <c r="A10" s="139"/>
+      <c r="B10" s="140"/>
       <c r="C10" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="138"/>
-      <c r="B11" s="139"/>
+      <c r="A11" s="139"/>
+      <c r="B11" s="140"/>
       <c r="C11" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="124"/>
-      <c r="B12" s="139"/>
+      <c r="A12" s="128"/>
+      <c r="B12" s="140"/>
       <c r="C12" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="124"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="26"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="124"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="128"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="116" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="114" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="128"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="114"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="124"/>
-      <c r="B15" s="139"/>
+      <c r="A15" s="128"/>
+      <c r="B15" s="140"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="27"/>
       <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="124"/>
-      <c r="B16" s="140" t="s">
-        <v>223</v>
+      <c r="A16" s="128"/>
+      <c r="B16" s="141" t="s">
+        <v>221</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="124"/>
-      <c r="B17" s="140"/>
+      <c r="A17" s="128"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="124"/>
-      <c r="B18" s="140"/>
+      <c r="A18" s="128"/>
+      <c r="B18" s="141"/>
       <c r="C18" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="124"/>
-      <c r="B19" s="140"/>
+      <c r="A19" s="128"/>
+      <c r="B19" s="141"/>
       <c r="C19" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="124"/>
-      <c r="B20" s="140"/>
+      <c r="A20" s="128"/>
+      <c r="B20" s="141"/>
       <c r="C20" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="124"/>
-      <c r="B21" s="140"/>
+      <c r="A21" s="128"/>
+      <c r="B21" s="141"/>
       <c r="C21" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="124"/>
-      <c r="B22" s="140"/>
+      <c r="A22" s="128"/>
+      <c r="B22" s="141"/>
       <c r="C22" s="21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" s="30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="128"/>
+      <c r="B23" s="141"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="128"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="21" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="124"/>
-      <c r="B23" s="140"/>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="124"/>
-      <c r="B24" s="140"/>
-      <c r="C24" s="21" t="s">
-        <v>235</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="124"/>
-      <c r="B25" s="140"/>
+      <c r="A25" s="128"/>
+      <c r="B25" s="141"/>
       <c r="C25" s="21"/>
       <c r="D25" s="28"/>
       <c r="E25" s="21"/>
       <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="124"/>
-      <c r="B26" s="140"/>
+      <c r="A26" s="128"/>
+      <c r="B26" s="141"/>
       <c r="C26" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="124"/>
-      <c r="B27" s="140"/>
+      <c r="A27" s="128"/>
+      <c r="B27" s="141"/>
       <c r="C27" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="124"/>
-      <c r="B28" s="140"/>
+      <c r="A28" s="128"/>
+      <c r="B28" s="141"/>
       <c r="C28" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D28" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="D28" s="28" t="s">
-        <v>248</v>
-      </c>
       <c r="E28" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="124"/>
-      <c r="B29" s="140"/>
+      <c r="A29" s="128"/>
+      <c r="B29" s="141"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
       <c r="E29" s="21"/>
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="124"/>
-      <c r="B30" s="139" t="s">
+      <c r="A30" s="128"/>
+      <c r="B30" s="140" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="124"/>
-      <c r="B31" s="139"/>
+      <c r="A31" s="128"/>
+      <c r="B31" s="140"/>
       <c r="C31" s="21"/>
       <c r="D31" s="28"/>
       <c r="E31" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F31" s="23"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="124"/>
-      <c r="B32" s="139"/>
+      <c r="A32" s="128"/>
+      <c r="B32" s="140"/>
       <c r="C32" s="31"/>
       <c r="D32" s="14"/>
       <c r="E32" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F32" s="33"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="124"/>
-      <c r="B33" s="139"/>
+      <c r="A33" s="128"/>
+      <c r="B33" s="140"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
       <c r="E33" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F33" s="37"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="124"/>
-      <c r="B34" s="139"/>
+      <c r="A34" s="128"/>
+      <c r="B34" s="140"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
       <c r="E34" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F34" s="37"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="124"/>
-      <c r="B35" s="139"/>
+      <c r="A35" s="128"/>
+      <c r="B35" s="140"/>
       <c r="C35" s="31"/>
       <c r="D35" s="14"/>
       <c r="E35" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F35" s="33"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="124"/>
-      <c r="B36" s="139"/>
+      <c r="A36" s="128"/>
+      <c r="B36" s="140"/>
       <c r="C36" s="31"/>
       <c r="D36" s="14"/>
       <c r="E36" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F36" s="33"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="124"/>
-      <c r="B37" s="139"/>
+      <c r="A37" s="128"/>
+      <c r="B37" s="140"/>
       <c r="C37" s="38"/>
       <c r="D37" s="35"/>
       <c r="E37" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F37" s="39"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="24"/>
-      <c r="B38" s="139" t="s">
-        <v>238</v>
+      <c r="B38" s="140" t="s">
+        <v>236</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="24"/>
-      <c r="B39" s="139"/>
+      <c r="B39" s="140"/>
       <c r="C39" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D39" s="28"/>
       <c r="E39" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="24"/>
-      <c r="B40" s="139"/>
+      <c r="B40" s="140"/>
       <c r="C40" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="24"/>
-      <c r="B41" s="139"/>
+      <c r="B41" s="140"/>
       <c r="C41" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="24"/>
-      <c r="B42" s="139"/>
+      <c r="B42" s="140"/>
       <c r="C42" s="34"/>
       <c r="D42" s="35"/>
       <c r="E42" s="36"/>
@@ -4964,7 +5084,7 @@
     </row>
     <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="24"/>
-      <c r="B43" s="139"/>
+      <c r="B43" s="140"/>
       <c r="C43" s="31"/>
       <c r="D43" s="14"/>
       <c r="E43" s="36"/>
@@ -4972,7 +5092,7 @@
     </row>
     <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="24"/>
-      <c r="B44" s="139"/>
+      <c r="B44" s="140"/>
       <c r="C44" s="31"/>
       <c r="D44" s="14"/>
       <c r="E44" s="36"/>
@@ -4980,7 +5100,7 @@
     </row>
     <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="24"/>
-      <c r="B45" s="139"/>
+      <c r="B45" s="140"/>
       <c r="C45" s="38"/>
       <c r="D45" s="35"/>
       <c r="E45" s="36"/>
@@ -4997,5 +5117,6 @@
     <mergeCell ref="B30:B37"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>